--- a/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
+++ b/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
@@ -31,7 +31,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.1.5.466</t>
+    <t>urn:oid:1.2.250.1.213.1.1.5.466</t>
   </si>
   <si>
     <t>Version</t>

--- a/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
+++ b/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
+++ b/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="159">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T12:00:00+01:00</t>
+    <t>2024-03-29T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -482,6 +482,12 @@
   </si>
   <si>
     <t>Communauté Professionnelle Territoriale de Santé</t>
+  </si>
+  <si>
+    <t>SA64</t>
+  </si>
+  <si>
+    <t>Société de téléconsultation</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R02-SecteurActivite/FHIR/TRE-R02-SecteurActivite</t>
@@ -804,7 +810,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1312,18 +1318,26 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>31</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B64" t="s" s="2">
-        <v>156</v>
+      <c r="B65" t="s" s="2">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
+++ b/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
@@ -73,7 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
+++ b/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="163">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T12:00:00+01:00</t>
+    <t>2024-05-31T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -488,6 +488,18 @@
   </si>
   <si>
     <t>Société de téléconsultation</t>
+  </si>
+  <si>
+    <t>SA66</t>
+  </si>
+  <si>
+    <t>Services de Prévention et de Santé au Travail (SPST)</t>
+  </si>
+  <si>
+    <t>SA67</t>
+  </si>
+  <si>
+    <t>Maisons médicales de garde (MMG)</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R02-SecteurActivite/FHIR/TRE-R02-SecteurActivite</t>
@@ -810,7 +822,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1326,18 +1338,34 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>31</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B65" t="s" s="2">
-        <v>158</v>
+      <c r="B67" t="s" s="2">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
+++ b/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="164">
   <si>
     <t>Property</t>
   </si>
@@ -76,6 +76,12 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -107,9 +113,6 @@
   </si>
   <si>
     <t>Service numérique référencé</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -636,7 +639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -742,20 +745,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -777,42 +788,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -834,538 +845,538 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
+++ b/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="166">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T12:00:00+01:00</t>
+    <t>2024-06-28T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -491,6 +491,12 @@
   </si>
   <si>
     <t>Société de téléconsultation</t>
+  </si>
+  <si>
+    <t>SA65</t>
+  </si>
+  <si>
+    <t>Antenne de pharmacie</t>
   </si>
   <si>
     <t>SA66</t>
@@ -833,7 +839,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1365,18 +1371,26 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>21</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B67" t="s" s="2">
-        <v>163</v>
+      <c r="B68" t="s" s="2">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
+++ b/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="170">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T12:00:00+01:00</t>
+    <t>2024-07-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -509,6 +509,18 @@
   </si>
   <si>
     <t>Maisons médicales de garde (MMG)</t>
+  </si>
+  <si>
+    <t>SA68</t>
+  </si>
+  <si>
+    <t>Services départementaux d'incendie et de secours</t>
+  </si>
+  <si>
+    <t>SA69</t>
+  </si>
+  <si>
+    <t>Maisons de naissance</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R02-SecteurActivite/FHIR/TRE-R02-SecteurActivite</t>
@@ -839,7 +851,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1379,18 +1391,34 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>21</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B68" t="s" s="2">
-        <v>165</v>
+      <c r="B70" t="s" s="2">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
+++ b/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
+++ b/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from TRE_A00-Producte" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from TRE_R02-SecteurA" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>

--- a/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
+++ b/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
@@ -9,12 +9,13 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
     <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #2" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="217">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-26T12:00:00+01:00</t>
+    <t>2024-09-27T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -524,6 +525,147 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R02-SecteurActivite/FHIR/TRE-R02-SecteurActivite</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>Service d'Éducation Spéciale et de Soins à Domicile</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>Institut Médico-Educatif (I.M.E.)</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>Institut Thérapeutique Éducatif et Pédagogique (I.T.E.P.)</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>Etablissement pour Enfants ou Adolescents Polyhandicapés</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>Centre Médico-Psycho-Pédagogique (C.M.P.P.)</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>Institut d'éducation motrice</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>Institut pour Déficients Visuels</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>Institut pour Déficients Auditifs</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>Institut d'Education Sensorielle Sourd-Aveugle</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>Service autonomie aide et soins (SAAS)</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>Bureau d'Aide Psychologique Universitaire (B.A.P.U.)</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>Centre d'Accueil Familial Spécialisé</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>Maison d'Accueil Spécialisée (M.A.S.)</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>Service de Soins Infirmiers A Domicile (S.S.I.A.D)</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>Etablissement d'Accueil Temporaire d'Enfants Handicapés</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>Etablissement d'Accueil Temporaire pour Adultes Handicapés</t>
+  </si>
+  <si>
+    <t>396</t>
+  </si>
+  <si>
+    <t>Foyer Hébergement Enfants et Adolescents Handicapés</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>Service d'accompagnement médico-social adultes handicapés</t>
+  </si>
+  <si>
+    <t>446</t>
+  </si>
+  <si>
+    <t>Service d'Accompagnement à la Vie Sociale (S.A.V.S.)</t>
+  </si>
+  <si>
+    <t>448</t>
+  </si>
+  <si>
+    <t>Etab.Acc.Médicalisé en tout ou partie personnes handicapées</t>
+  </si>
+  <si>
+    <t>449</t>
+  </si>
+  <si>
+    <t>Etab.Accueil Non Médicalisé pour personnes handicapées</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>Service autonomie aide (SAA)</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>Service d'aide et d'accompagnement à domicile aux familles (SAADF)</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R66-CategorieEtablissement/FHIR/TRE-R66-CategorieEtablissement</t>
   </si>
 </sst>
 </file>
@@ -1424,4 +1566,229 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
+++ b/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
+++ b/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
@@ -9,13 +9,12 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
     <sheet name="Include #1" r:id="rId5" sheetId="3"/>
-    <sheet name="Include #2" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="170">
   <si>
     <t>Property</t>
   </si>
@@ -62,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T12:00:00+01:00</t>
+    <t>2024-07-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -525,147 +524,6 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R02-SecteurActivite/FHIR/TRE-R02-SecteurActivite</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>Service d'Éducation Spéciale et de Soins à Domicile</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>Institut Médico-Educatif (I.M.E.)</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>Institut Thérapeutique Éducatif et Pédagogique (I.T.E.P.)</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>Etablissement pour Enfants ou Adolescents Polyhandicapés</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>Centre Médico-Psycho-Pédagogique (C.M.P.P.)</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>Institut d'éducation motrice</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>Institut pour Déficients Visuels</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>Institut pour Déficients Auditifs</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>Institut d'Education Sensorielle Sourd-Aveugle</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>Service autonomie aide et soins (SAAS)</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>Bureau d'Aide Psychologique Universitaire (B.A.P.U.)</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>Centre d'Accueil Familial Spécialisé</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>Maison d'Accueil Spécialisée (M.A.S.)</t>
-  </si>
-  <si>
-    <t>354</t>
-  </si>
-  <si>
-    <t>Service de Soins Infirmiers A Domicile (S.S.I.A.D)</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>Etablissement d'Accueil Temporaire d'Enfants Handicapés</t>
-  </si>
-  <si>
-    <t>395</t>
-  </si>
-  <si>
-    <t>Etablissement d'Accueil Temporaire pour Adultes Handicapés</t>
-  </si>
-  <si>
-    <t>396</t>
-  </si>
-  <si>
-    <t>Foyer Hébergement Enfants et Adolescents Handicapés</t>
-  </si>
-  <si>
-    <t>445</t>
-  </si>
-  <si>
-    <t>Service d'accompagnement médico-social adultes handicapés</t>
-  </si>
-  <si>
-    <t>446</t>
-  </si>
-  <si>
-    <t>Service d'Accompagnement à la Vie Sociale (S.A.V.S.)</t>
-  </si>
-  <si>
-    <t>448</t>
-  </si>
-  <si>
-    <t>Etab.Acc.Médicalisé en tout ou partie personnes handicapées</t>
-  </si>
-  <si>
-    <t>449</t>
-  </si>
-  <si>
-    <t>Etab.Accueil Non Médicalisé pour personnes handicapées</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>Service autonomie aide (SAA)</t>
-  </si>
-  <si>
-    <t>640</t>
-  </si>
-  <si>
-    <t>Service d'aide et d'accompagnement à domicile aux familles (SAADF)</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R66-CategorieEtablissement/FHIR/TRE-R66-CategorieEtablissement</t>
   </si>
 </sst>
 </file>
@@ -1566,229 +1424,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>216</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
+++ b/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-26T12:00:00+01:00</t>
+    <t>2024-12-13T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -484,7 +484,7 @@
     <t>SA63</t>
   </si>
   <si>
-    <t>Communauté Professionnelle Territoriale de Santé</t>
+    <t>Communauté professionnelle territoriale de santé et équipe de soins spécialisés</t>
   </si>
   <si>
     <t>SA64</t>

--- a/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
+++ b/ig/main/ValueSet-JDV-J02-XdsHealthcareFacilityTypeCode-CISIS.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
